--- a/user-home.xlsx
+++ b/user-home.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitDocsearcher\docsearcher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bywangxp/Documents/java_code/github/docsearcher/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="34660" yWindow="-1540" windowWidth="25600" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>接口地址：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +253,74 @@
   </si>
   <si>
     <t>接口地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/DocSearcher/user/home_middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中栏列表信息反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          }]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/DocSearcher/user/home_right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户接口4：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/DocSearcher/user/home_sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"description" :"个性签名"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户接口5：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回上传的头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//初始状态为默认图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"img":"XX.jpg"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//用户头像修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//此处返回前要对输入表单做验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/DocSearcher/user/home_img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,83 +352,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/DocSearcher/user/home_middle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中栏列表信息反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">          }]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/DocSearcher/user/home_right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户接口4：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/DocSearcher/user/home_sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"description" :"个性签名"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户接口5：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回上传的头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数：</t>
+    <t>此接口与用户贡献，公用一个</t>
+    <rPh sb="0" eb="1">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong'yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'ge</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>img：jpg/png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//初始状态为默认图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"img":"XX.jpg"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//用户头像修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//此处返回前要对输入表单做验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/DocSearcher/user/home_img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,13 +409,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -400,11 +442,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -413,7 +455,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -421,17 +463,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -441,7 +483,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -449,12 +491,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,18 +505,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,6 +560,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,12 +606,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -542,43 +617,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +722,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -965,32 +1013,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:J62"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1002,13 +1050,13 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1017,16 +1065,18 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="21"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K3" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1046,9 +1096,9 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="21"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
@@ -1068,9 +1118,9 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
@@ -1092,9 +1142,9 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
@@ -1116,9 +1166,9 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
@@ -1140,9 +1190,9 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="21"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
@@ -1164,9 +1214,9 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="21"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
@@ -1188,9 +1238,9 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
@@ -1212,9 +1262,9 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
-      <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1232,9 +1282,9 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
@@ -1256,7 +1306,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1276,37 +1326,37 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="25"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1322,11 +1372,11 @@
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="21"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1344,9 +1394,9 @@
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="21"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
@@ -1366,9 +1416,9 @@
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="21"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
@@ -1388,9 +1438,9 @@
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
-      <c r="R19" s="21"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
@@ -1410,9 +1460,9 @@
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
-      <c r="R20" s="21"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
@@ -1434,9 +1484,9 @@
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
-      <c r="R21" s="21"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
@@ -1458,9 +1508,9 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
-      <c r="R22" s="21"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
@@ -1482,9 +1532,9 @@
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
-      <c r="R23" s="21"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
@@ -1504,9 +1554,9 @@
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
-      <c r="R24" s="21"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
@@ -1526,9 +1576,9 @@
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
-      <c r="R25" s="21"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
@@ -1548,9 +1598,9 @@
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
-      <c r="R26" s="21"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -1570,9 +1620,9 @@
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
-      <c r="R27" s="21"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="15"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
@@ -1592,9 +1642,9 @@
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-      <c r="R28" s="21"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R28" s="15"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
@@ -1614,9 +1664,9 @@
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-      <c r="R29" s="21"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R29" s="15"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="5" t="s">
@@ -1636,9 +1686,9 @@
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
-      <c r="R30" s="21"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R30" s="15"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
@@ -1658,9 +1708,9 @@
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
-      <c r="R31" s="21"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
@@ -1680,9 +1730,9 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="21"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R32" s="15"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
@@ -1702,9 +1752,9 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="21"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R33" s="15"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="5" t="s">
@@ -1724,9 +1774,9 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
-      <c r="R34" s="21"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R34" s="15"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
@@ -1746,13 +1796,13 @@
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
-      <c r="R35" s="21"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="15"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -1768,31 +1818,31 @@
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
-      <c r="R36" s="21"/>
-    </row>
-    <row r="37" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19" t="s">
+      <c r="R36" s="15"/>
+    </row>
+    <row r="37" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="23"/>
-    </row>
-    <row r="38" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="20"/>
+    </row>
+    <row r="38" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1810,47 +1860,47 @@
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
-      <c r="R38" s="21"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="R38" s="15"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="28" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="25"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="19"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="14"/>
-      <c r="C40" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
+      <c r="C40" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
@@ -1858,19 +1908,19 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
-      <c r="R40" s="21"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R40" s="15"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
@@ -1878,9 +1928,9 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
-      <c r="R41" s="21"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R41" s="15"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>2</v>
       </c>
@@ -1902,9 +1952,9 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
-      <c r="R42" s="21"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R42" s="15"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
@@ -1926,9 +1976,9 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
-      <c r="R43" s="21"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R43" s="15"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14" t="s">
@@ -1950,9 +2000,9 @@
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
-      <c r="R44" s="21"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R44" s="15"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
@@ -1974,9 +2024,9 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
-      <c r="R45" s="21"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R45" s="15"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
@@ -1998,9 +2048,9 @@
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
-      <c r="R46" s="21"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R46" s="15"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>43</v>
       </c>
@@ -2022,9 +2072,9 @@
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
-      <c r="R47" s="21"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R47" s="15"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14" t="s">
@@ -2038,7 +2088,7 @@
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
@@ -2046,9 +2096,9 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
-      <c r="R48" s="21"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R48" s="15"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
@@ -2068,9 +2118,9 @@
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
-      <c r="R49" s="21"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R49" s="15"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14" t="s">
@@ -2090,9 +2140,9 @@
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
-      <c r="R50" s="21"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R50" s="15"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
@@ -2112,81 +2162,81 @@
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
-      <c r="R51" s="21"/>
-    </row>
-    <row r="52" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19" t="s">
+      <c r="R51" s="15"/>
+    </row>
+    <row r="52" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="23"/>
-    </row>
-    <row r="53" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24" t="s">
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="20"/>
+    </row>
+    <row r="53" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="25"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="19"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
@@ -2202,15 +2252,15 @@
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
-      <c r="R55" s="21"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R55" s="15"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -2226,13 +2276,13 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
-      <c r="R56" s="21"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R56" s="15"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
@@ -2248,39 +2298,39 @@
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
-      <c r="R57" s="21"/>
-    </row>
-    <row r="58" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="23"/>
-    </row>
-    <row r="59" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
+      <c r="R57" s="15"/>
+    </row>
+    <row r="58" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="20"/>
+    </row>
+    <row r="59" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -2290,37 +2340,37 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="12"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="25"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
@@ -2329,22 +2379,22 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="20"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="30"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -2354,7 +2404,7 @@
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
@@ -2362,9 +2412,9 @@
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
-      <c r="R62" s="21"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R62" s="15"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>43</v>
       </c>
@@ -2379,20 +2429,20 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="20"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="30"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -2402,7 +2452,7 @@
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
@@ -2410,31 +2460,31 @@
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
-      <c r="R64" s="21"/>
-    </row>
-    <row r="65" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19" t="s">
+      <c r="R64" s="15"/>
+    </row>
+    <row r="65" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="22"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="31"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2446,39 +2496,129 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="K61:R61"/>
+    <mergeCell ref="K62:R62"/>
+    <mergeCell ref="K63:R63"/>
+    <mergeCell ref="K64:R64"/>
+    <mergeCell ref="K65:R65"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="K54:R54"/>
+    <mergeCell ref="K37:R37"/>
+    <mergeCell ref="K55:R55"/>
+    <mergeCell ref="K56:R56"/>
+    <mergeCell ref="K57:R57"/>
+    <mergeCell ref="K58:R58"/>
+    <mergeCell ref="K47:R47"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="K49:R49"/>
+    <mergeCell ref="K50:R50"/>
+    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="K52:R52"/>
+    <mergeCell ref="K53:R53"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="K30:R30"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K45:R45"/>
+    <mergeCell ref="K46:R46"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="K44:R44"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C64:J64"/>
     <mergeCell ref="C57:J57"/>
@@ -2503,130 +2643,40 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="K45:R45"/>
-    <mergeCell ref="K46:R46"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="K3:R3"/>
-    <mergeCell ref="K41:R41"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="K44:R44"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K52:R52"/>
-    <mergeCell ref="K53:R53"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="K39:R39"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K38:R38"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="K30:R30"/>
-    <mergeCell ref="K54:R54"/>
-    <mergeCell ref="K37:R37"/>
-    <mergeCell ref="K55:R55"/>
-    <mergeCell ref="K56:R56"/>
-    <mergeCell ref="K57:R57"/>
-    <mergeCell ref="K58:R58"/>
-    <mergeCell ref="K47:R47"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="K49:R49"/>
-    <mergeCell ref="K50:R50"/>
-    <mergeCell ref="K51:R51"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="K61:R61"/>
-    <mergeCell ref="K62:R62"/>
-    <mergeCell ref="K63:R63"/>
-    <mergeCell ref="K64:R64"/>
-    <mergeCell ref="K65:R65"/>
-    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
